--- a/src/test/resources/practice.xlsx
+++ b/src/test/resources/practice.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,49 +19,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>sachin</t>
+  </si>
+  <si>
+    <t>sachi@123</t>
+  </si>
+  <si>
+    <t>google.com</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>gowtham</t>
+  </si>
   <si>
     <t>browser</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>sachin</t>
-  </si>
-  <si>
-    <t>sachi@123</t>
-  </si>
-  <si>
-    <t>google.com</t>
-  </si>
-  <si>
-    <t>firefox</t>
-  </si>
-  <si>
-    <t>focabook.com</t>
-  </si>
-  <si>
-    <t>darshan</t>
-  </si>
-  <si>
-    <t>darshan@123</t>
+    <t>site</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>gmail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,46 +377,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>10</v>
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.google.com/"/>
     <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://www.google.com/"/>
+    <hyperlink ref="D3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
